--- a/2T1617-ATTENDACE/CITCS-ICS2-CITCS INTL 3.xlsx
+++ b/2T1617-ATTENDACE/CITCS-ICS2-CITCS INTL 3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneDrive\16172-Attendance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard Reyes\Desktop\GIT\FileOrg\2T1617-ATTENDACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="108">
   <si>
     <t>University of the Cordilleras</t>
   </si>
@@ -354,7 +354,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -371,21 +371,70 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -394,7 +443,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
@@ -403,13 +452,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -809,7 +916,7 @@
   </sheetPr>
   <dimension ref="A1:IV264"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B50"/>
     </sheetView>
   </sheetViews>
@@ -4530,274 +4637,488 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV39"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.453125" style="1" customWidth="1"/>
-    <col min="2" max="256" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.26953125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="5.08984375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="5.6328125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="5.08984375" style="11" customWidth="1"/>
+    <col min="5" max="8" width="5.6328125" style="11" customWidth="1"/>
+    <col min="9" max="14" width="5.6328125" style="12" customWidth="1"/>
+    <col min="15" max="16384" width="14.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="1">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="6">
         <v>2.11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="8">
+        <v>2.15</v>
+      </c>
+      <c r="G1" s="8">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="F3" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="10"/>
+      <c r="D4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="10"/>
+      <c r="D5" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="10"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="10"/>
+      <c r="D7" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="F10" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="10"/>
+      <c r="D11" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="F13" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+      <c r="B14" s="10"/>
+      <c r="D14" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="B15" s="10"/>
+      <c r="D15" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="B16" s="10"/>
+      <c r="D16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="22" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="B17" s="10"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="D18" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+      <c r="D20" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="D22" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="24" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="22" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+      <c r="B24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="F24" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
+      <c r="B26" s="10"/>
+      <c r="D26" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
+      <c r="B27" s="10"/>
+      <c r="D27" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
+      <c r="B28" s="10"/>
+      <c r="D28" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
+      <c r="B30" s="10"/>
+      <c r="D30" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="22" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
+      <c r="B31" s="10"/>
+      <c r="D31" s="9"/>
+      <c r="F31" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
+      <c r="B32" s="10"/>
+      <c r="D32" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
+      <c r="B33" s="10"/>
+      <c r="D33" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="22" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
+      <c r="B36" s="10"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="22" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
+      <c r="B37" s="10"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="22" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
+      <c r="B38" s="10"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="22" t="s">
         <v>105</v>
       </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="22"/>
+      <c r="B40" s="10"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="22"/>
+      <c r="B41" s="10"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="22"/>
+      <c r="B42" s="10"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="22"/>
+      <c r="B43" s="10"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="22"/>
+      <c r="B44" s="10"/>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="22"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="22"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="22"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="22"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="22"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="22"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="22"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="22"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="22"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:Q1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
